--- a/biology/Botanique/Place_de_la_Confédération_(Ottawa)/Place_de_la_Confédération_(Ottawa).xlsx
+++ b/biology/Botanique/Place_de_la_Confédération_(Ottawa)/Place_de_la_Confédération_(Ottawa).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Place_de_la_Conf%C3%A9d%C3%A9ration_(Ottawa)</t>
+          <t>Place_de_la_Confédération_(Ottawa)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La place de la Confédération (Confederation Square) est une place située au centre-ville d'Ottawa en Ontario.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Place_de_la_Conf%C3%A9d%C3%A9ration_(Ottawa)</t>
+          <t>Place_de_la_Confédération_(Ottawa)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Situation et accès</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">De forme triangulaire, la place est bordée par la rue Wellington au nord, et, depuis le sud, par les deux branches de la rue Elgin qui s'écartent à l'est et à l'ouest. C'est l'un des rares sites d'un centre-ville au Canada à avoir été aménagé suivant les principes du City Beautiful[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">De forme triangulaire, la place est bordée par la rue Wellington au nord, et, depuis le sud, par les deux branches de la rue Elgin qui s'écartent à l'est et à l'ouest. C'est l'un des rares sites d'un centre-ville au Canada à avoir été aménagé suivant les principes du City Beautiful.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Place_de_la_Conf%C3%A9d%C3%A9ration_(Ottawa)</t>
+          <t>Place_de_la_Confédération_(Ottawa)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,9 +557,11 @@
           <t>Origine du nom</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La place a été désignée lieu historique national du Canada en 1984[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La place a été désignée lieu historique national du Canada en 1984.
 </t>
         </is>
       </c>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Place_de_la_Conf%C3%A9d%C3%A9ration_(Ottawa)</t>
+          <t>Place_de_la_Confédération_(Ottawa)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,9 +590,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La place, construite en 1859, est connue pour être l'emplacement du Monument commémoratif de guerre du Canada, avec la tombe du soldat inconnu[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La place, construite en 1859, est connue pour être l'emplacement du Monument commémoratif de guerre du Canada, avec la tombe du soldat inconnu.
 </t>
         </is>
       </c>
@@ -587,7 +605,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Place_de_la_Conf%C3%A9d%C3%A9ration_(Ottawa)</t>
+          <t>Place_de_la_Confédération_(Ottawa)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -605,7 +623,9 @@
           <t>Bâtiments remarquables et lieux de mémoire</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			La place entre 1912 et 1938
